--- a/固废资料/固废项目进度表.xlsx
+++ b/固废资料/固废项目进度表.xlsx
@@ -39,7 +39,8 @@
     <t>10月</t>
   </si>
   <si>
-    <t>11月</t>
+    <t>11月
+11月</t>
   </si>
   <si>
     <t>8.27-8.31</t>
@@ -131,12 +132,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +162,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -174,46 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,69 +291,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,17 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,36 +602,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -663,6 +622,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,137 +695,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,9 +844,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,6 +879,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1240,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1255,9 +1252,10 @@
     <col min="9" max="9" width="12.2166666666667" customWidth="1"/>
     <col min="10" max="10" width="12.4416666666667" customWidth="1"/>
     <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,8 +1271,9 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1295,11 +1294,12 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -1329,8 +1329,11 @@
       <c r="K3" s="1">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1344,59 +1347,63 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" ht="22" customHeight="1" spans="1:11">
-      <c r="A5" s="6">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:12">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:11">
-      <c r="A6" s="6">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:12">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" ht="22" customHeight="1" spans="1:11">
-      <c r="A7" s="6">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="1:12">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1410,296 +1417,315 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" ht="22" customHeight="1" spans="1:11">
-      <c r="A9" s="6">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="1:12">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" ht="22" customHeight="1" spans="1:11">
-      <c r="A10" s="6">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" ht="22" customHeight="1" spans="1:12">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" ht="22" customHeight="1" spans="1:11">
-      <c r="A11" s="6">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" ht="22" customHeight="1" spans="1:12">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" ht="22" customHeight="1" spans="1:11">
-      <c r="A12" s="6">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" ht="22" customHeight="1" spans="1:12">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" ht="22" customHeight="1" spans="1:11">
-      <c r="A13" s="6">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" ht="22" customHeight="1" spans="1:12">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="1:11">
-      <c r="A14" s="6">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:12">
+      <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" ht="22" customHeight="1" spans="1:11">
-      <c r="A15" s="6">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" ht="22" customHeight="1" spans="1:12">
+      <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" ht="22" customHeight="1" spans="1:11">
-      <c r="A16" s="6">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" ht="22" customHeight="1" spans="1:12">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="1:11">
-      <c r="A17" s="6">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="1:12">
+      <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" ht="21" customHeight="1" spans="1:11">
-      <c r="A18" s="6">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:12">
+      <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="16" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" ht="22" customHeight="1" spans="1:11">
-      <c r="A20" s="17">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" ht="22" customHeight="1" spans="1:12">
+      <c r="A20" s="16">
         <v>1</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" ht="22" customHeight="1" spans="1:11">
-      <c r="A21" s="17">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" ht="22" customHeight="1" spans="1:12">
+      <c r="A21" s="16">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" ht="22" customHeight="1" spans="1:11">
-      <c r="A22" s="17">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="1:12">
+      <c r="A22" s="16">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" ht="22" customHeight="1" spans="1:11">
-      <c r="A24" s="6">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:12">
+      <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" ht="22" customHeight="1" spans="1:11">
-      <c r="A25" s="6">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" ht="22" customHeight="1" spans="1:12">
+      <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A19:K19"/>

--- a/固废资料/固废项目进度表.xlsx
+++ b/固废资料/固废项目进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>时间</t>
   </si>
@@ -61,6 +61,9 @@
     <t>10.30-10.31</t>
   </si>
   <si>
+    <t>11.6-11.10</t>
+  </si>
+  <si>
     <t>项目立项阶段</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t>页面兼容性测试，页面优化</t>
+  </si>
+  <si>
+    <t>表格和图表的切换</t>
   </si>
   <si>
     <t>系统测试及完善阶段</t>
@@ -132,12 +138,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,21 +168,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,8 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,86 +287,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,187 +345,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,26 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,35 +632,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,6 +653,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,137 +708,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,10 +896,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K21" sqref="A19:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1249,13 +1265,12 @@
     <col min="3" max="4" width="12.1083333333333" customWidth="1"/>
     <col min="7" max="7" width="10.8833333333333" customWidth="1"/>
     <col min="8" max="8" width="13.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.2166666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="10" max="10" width="12.4416666666667" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="13.6666666666667" customWidth="1"/>
+    <col min="11" max="13" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1287,9 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1298,8 +1314,9 @@
         <v>7</v>
       </c>
       <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -1332,10 +1349,13 @@
       <c r="L3" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1348,13 +1368,14 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" ht="22" customHeight="1" spans="1:12">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -1366,13 +1387,14 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:12">
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
@@ -1384,13 +1406,14 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" ht="22" customHeight="1" spans="1:12">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -1402,10 +1425,11 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1418,13 +1442,14 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" ht="22" customHeight="1" spans="1:12">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:13">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1436,13 +1461,14 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" ht="22" customHeight="1" spans="1:12">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="1:13">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1454,13 +1480,14 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" ht="22" customHeight="1" spans="1:12">
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:13">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1472,13 +1499,14 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-    </row>
-    <row r="12" ht="22" customHeight="1" spans="1:12">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:13">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1490,13 +1518,14 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-    </row>
-    <row r="13" ht="22" customHeight="1" spans="1:12">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" ht="22" customHeight="1" spans="1:13">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1508,13 +1537,14 @@
       <c r="J13" s="10"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="1:12">
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1526,13 +1556,14 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-    </row>
-    <row r="15" ht="22" customHeight="1" spans="1:12">
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" ht="22" customHeight="1" spans="1:13">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1544,13 +1575,14 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-    </row>
-    <row r="16" ht="22" customHeight="1" spans="1:12">
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" ht="22" customHeight="1" spans="1:13">
       <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1562,13 +1594,14 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="1:12">
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="1:13">
       <c r="A17" s="1">
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1580,13 +1613,14 @@
       <c r="J17" s="10"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" ht="21" customHeight="1" spans="1:12">
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:13">
       <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1598,10 +1632,11 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1614,13 +1649,14 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-    </row>
-    <row r="20" ht="22" customHeight="1" spans="1:12">
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" ht="22" customHeight="1" spans="1:13">
       <c r="A20" s="16">
         <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1632,13 +1668,14 @@
       <c r="J20" s="20"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" ht="22" customHeight="1" spans="1:12">
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" ht="22" customHeight="1" spans="1:13">
       <c r="A21" s="16">
         <v>2</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1650,13 +1687,14 @@
       <c r="J21" s="10"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" ht="22" customHeight="1" spans="1:12">
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="1:13">
       <c r="A22" s="16">
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1668,47 +1706,50 @@
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" ht="22" customHeight="1" spans="1:12">
-      <c r="A24" s="1">
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" ht="22" customHeight="1" spans="1:13">
+      <c r="A23" s="16">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" ht="22" customHeight="1" spans="1:13">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" ht="22" customHeight="1" spans="1:12">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
       <c r="B25" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1717,15 +1758,35 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" ht="22" customHeight="1" spans="1:13">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A19:K19"/>
